--- a/data/metadata/mapping-nucleo.xlsx
+++ b/data/metadata/mapping-nucleo.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4854" uniqueCount="4854">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4836" uniqueCount="4836">
   <si>
     <t>44216000401 - Caudé</t>
   </si>
@@ -14519,60 +14519,6 @@
   </si>
   <si>
     <t>http://opendata.aragon.es/kos/iaest/nucleo/22173000801-triste</t>
-  </si>
-  <si>
-    <t>220990012 -  Espartal (El)</t>
-  </si>
-  <si>
-    <t>http://opendata.aragon.es/kos/iaest/nucleo/220990012-espartal-el</t>
-  </si>
-  <si>
-    <t>222470005 -  Montfalcó</t>
-  </si>
-  <si>
-    <t>http://opendata.aragon.es/kos/iaest/nucleo/222470005-montfalco</t>
-  </si>
-  <si>
-    <t>220990011 -  Clamor de Rafales (La)</t>
-  </si>
-  <si>
-    <t>http://opendata.aragon.es/kos/iaest/nucleo/220990011-clamor-de-rafales-la</t>
-  </si>
-  <si>
-    <t>22099001199 - Diseminado</t>
-  </si>
-  <si>
-    <t>http://opendata.aragon.es/kos/iaest/nucleo/22099001199-diseminado</t>
-  </si>
-  <si>
-    <t>50225000102 - El Vergel de la Planilla</t>
-  </si>
-  <si>
-    <t>http://opendata.aragon.es/kos/iaest/nucleo/50225000102-el-vergel-de-planilla</t>
-  </si>
-  <si>
-    <t>50227000199 - Diseminado</t>
-  </si>
-  <si>
-    <t>http://opendata.aragon.es/kos/iaest/nucleo/50227000199-diseminado</t>
-  </si>
-  <si>
-    <t>22247000599 - Diseminado</t>
-  </si>
-  <si>
-    <t>http://opendata.aragon.es/kos/iaest/nucleo/22247000599-diseminado</t>
-  </si>
-  <si>
-    <t>22099001299 - Diseminado</t>
-  </si>
-  <si>
-    <t>http://opendata.aragon.es/kos/iaest/nucleo/22099001299-diseminado</t>
-  </si>
-  <si>
-    <t>50297000412 - Urbanización Torre del Pinar</t>
-  </si>
-  <si>
-    <t>http://opendata.aragon.es/kos/iaest/nucleo/50297000412-urbanizacion-torres-del-pinar</t>
   </si>
 </sst>
 </file>
@@ -14600,20 +14546,25 @@
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
   <cellXfs count="3">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+      <alignment/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+      <alignment/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+      <alignment/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -14623,23 +14574,16 @@
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+<file path=xl/drawings/worksheetdrawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-  </sheetPr>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
-  <cols>
-    <col customWidth="1" min="1" max="1" width="39.14"/>
-    <col customWidth="1" min="2" max="2" width="102.43"/>
-  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
@@ -33983,78 +33927,6 @@
       </c>
       <c r="B2418" s="2" t="s">
         <v>4835</v>
-      </c>
-    </row>
-    <row r="2419">
-      <c r="A2419" s="1" t="s">
-        <v>4836</v>
-      </c>
-      <c r="B2419" s="2" t="s">
-        <v>4837</v>
-      </c>
-    </row>
-    <row r="2420">
-      <c r="A2420" s="1" t="s">
-        <v>4838</v>
-      </c>
-      <c r="B2420" s="2" t="s">
-        <v>4839</v>
-      </c>
-    </row>
-    <row r="2421">
-      <c r="A2421" s="1" t="s">
-        <v>4840</v>
-      </c>
-      <c r="B2421" s="2" t="s">
-        <v>4841</v>
-      </c>
-    </row>
-    <row r="2422">
-      <c r="A2422" s="1" t="s">
-        <v>4842</v>
-      </c>
-      <c r="B2422" s="2" t="s">
-        <v>4843</v>
-      </c>
-    </row>
-    <row r="2423">
-      <c r="A2423" s="1" t="s">
-        <v>4844</v>
-      </c>
-      <c r="B2423" s="2" t="s">
-        <v>4845</v>
-      </c>
-    </row>
-    <row r="2424">
-      <c r="A2424" s="1" t="s">
-        <v>4846</v>
-      </c>
-      <c r="B2424" s="2" t="s">
-        <v>4847</v>
-      </c>
-    </row>
-    <row r="2425">
-      <c r="A2425" s="1" t="s">
-        <v>4848</v>
-      </c>
-      <c r="B2425" s="2" t="s">
-        <v>4849</v>
-      </c>
-    </row>
-    <row r="2426">
-      <c r="A2426" s="1" t="s">
-        <v>4850</v>
-      </c>
-      <c r="B2426" s="2" t="s">
-        <v>4851</v>
-      </c>
-    </row>
-    <row r="2427">
-      <c r="A2427" s="1" t="s">
-        <v>4852</v>
-      </c>
-      <c r="B2427" s="2" t="s">
-        <v>4853</v>
       </c>
     </row>
   </sheetData>
@@ -36477,16 +36349,7 @@
     <hyperlink r:id="rId2416" ref="B2416"/>
     <hyperlink r:id="rId2417" ref="B2417"/>
     <hyperlink r:id="rId2418" ref="B2418"/>
-    <hyperlink r:id="rId2419" ref="B2419"/>
-    <hyperlink r:id="rId2420" ref="B2420"/>
-    <hyperlink r:id="rId2421" ref="B2421"/>
-    <hyperlink r:id="rId2422" ref="B2422"/>
-    <hyperlink r:id="rId2423" ref="B2423"/>
-    <hyperlink r:id="rId2424" ref="B2424"/>
-    <hyperlink r:id="rId2425" ref="B2425"/>
-    <hyperlink r:id="rId2426" ref="B2426"/>
-    <hyperlink r:id="rId2427" ref="B2427"/>
   </hyperlinks>
-  <drawing r:id="rId2428"/>
+  <drawing r:id="rId2419"/>
 </worksheet>
 </file>